--- a/CaseStudy2-data_j.xlsx
+++ b/CaseStudy2-data_j.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wailunchung/Documents/GitHub/DS_6306_case_study_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C707226E-A196-D94C-A108-9CCAB0EBF66B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FEB9FEFB-07F2-2B40-AEC1-0EE923DFA7CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30400" yWindow="1300" windowWidth="28040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38600" yWindow="-360" windowWidth="28040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseStudy2-data" sheetId="1" r:id="rId1"/>
+    <sheet name="columns" sheetId="2" r:id="rId2"/>
+    <sheet name="result_attrition" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7866" uniqueCount="63">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7935" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -216,6 +219,66 @@
   <si>
     <t>Laboratory Technician</t>
   </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>Accuracy:</t>
+  </si>
+  <si>
+    <t>Sensitivity:</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Multiple Regression Model</t>
+  </si>
+  <si>
+    <t>stepwise selection</t>
+  </si>
+  <si>
+    <t>Stepwise</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Adjusted R-squared</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>In this case adjusted R-squared = 0.9168, which is a strong relationship. This suggests our model is a relatively good predictor of the outcome.</t>
+  </si>
+  <si>
+    <t>In this case we could say that 91.68% of the variance in the data can be explained by the predictor variables.</t>
+  </si>
+  <si>
+    <t>The results indicated that the model was a significant predictor of exam performance, F(23,498) = 250.5, p = .001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the significance value is less than p=0.001, we can say that the regression model significantly predicts Monthly Income. </t>
+  </si>
+  <si>
+    <t>Distance From Home
+Education
+Job Satisfaction
+Monthly Income</t>
+  </si>
 </sst>
 </file>
 
@@ -357,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,8 +654,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <start/>
       <end/>
@@ -707,6 +782,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -752,7 +881,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -763,6 +892,39 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1120,8 +1282,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -96939,4 +97101,465 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DEA3A-21A3-C843-BE5D-ACEE2315D3D3}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EF6191-BBF8-6A45-BB84-B183BEABAEA5}">
+  <dimension ref="B2:J16"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="10.83203125" style="9"/>
+    <col min="6" max="6" width="5.5" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="G2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="I4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="19">
+        <v>281</v>
+      </c>
+      <c r="E6" s="19">
+        <v>42</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="19">
+        <v>291</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="19">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.98250000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D775B5-2EDA-AE4C-92B6-CC03FD4EB5B9}">
+  <dimension ref="A3:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="9"/>
+    <col min="3" max="3" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="19"/>
+      <c r="C4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1327.915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1315.8779999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1327.8779999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>